--- a/assets/img/Tableau.xlsx
+++ b/assets/img/Tableau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yehou\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A81A51C-9EED-4275-94A8-0B5977992BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC6F1E6-AF05-4B70-9A7A-56831FB60604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -120,9 +119,6 @@
     <t>Centre de formation : Ort Montreuil</t>
   </si>
   <si>
-    <t xml:space="preserve">Adresse URL du portfolio : </t>
-  </si>
-  <si>
     <t>Projet Quizziz en PHP partie Backend</t>
   </si>
   <si>
@@ -140,6 +136,9 @@
   <si>
     <t xml:space="preserve"> SISR</t>
   </si>
+  <si>
+    <t>Adresse URL du portfolio : https://schlanger.github.io/</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -218,6 +217,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -689,9 +694,48 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -714,45 +758,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,7 +782,39 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -788,15 +825,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>94074</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>56445</xdr:rowOff>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1119481</xdr:colOff>
+          <xdr:colOff>1120140</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>460963</xdr:rowOff>
+          <xdr:rowOff>457200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -892,7 +929,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB5A2FE-DEEB-BFB4-7ED0-82E76836E06E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -949,6 +986,542 @@
               </a:r>
             </a:p>
           </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>586740</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>441960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>98335</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>163648</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1050835</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>369388</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>83820</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>99785</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>607786</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>357414</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>100150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>154577</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1052650</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>360317</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>99786</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>165462</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1052286</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>371202</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>101238</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>154940</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1091838</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>360680</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>591820</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>127363</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>279400</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>333103</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>596537</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>136434</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>306977</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>342174</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -1284,8 +1857,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="81" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1298,83 +1871,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>25</v>
+      <c r="A5" s="34" t="s">
+        <v>31</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1397,8 +1970,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1454,16 +2027,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1502,10 +2075,10 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
@@ -1551,10 +2124,10 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -1600,15 +2173,14 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11"/>
@@ -1963,16 +2535,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2325,16 +2897,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2779,6 +3351,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2786,11 +3363,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2846,6 +3418,182 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId6" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>586740</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>236220</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>441960</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId7" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>160020</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1051560</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>365760</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId8" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>83820</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>99060</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>609600</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId9" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1051560</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId10" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1051560</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>373380</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId11" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1089660</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId12" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>594360</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>129540</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>281940</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>335280</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId13" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>594360</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>137160</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>304800</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
